--- a/public/file/excel/template_upload_data_siswa.xlsx
+++ b/public/file/excel/template_upload_data_siswa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\OneDrive - it.student.pens.ac.id\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Laravel\elearning\public\file\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>NIS</t>
   </si>
@@ -248,6 +248,9 @@
     <t>9H</t>
   </si>
   <si>
+    <t>FOTO</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Header sudah diatur yaitu: </t>
     </r>
@@ -317,6 +320,23 @@
         <color theme="1"/>
         <rFont val="Poppins"/>
       </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Foto</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
       <t xml:space="preserve">, dan </t>
     </r>
     <r>
@@ -335,6 +355,78 @@
         <rFont val="Poppins"/>
       </rPr>
       <t xml:space="preserve"> (baca ketentuan kode kelas disamping !)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Foto sudah disediakan di dalam asset gambar, terdapat gambar dengan judul '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>avatar-[1-20]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>'. Admin dapat mengatur agar urut mulai dari avatar-1.png s.d. avatar-20.png</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Kode Kelas diisi dengan kode kelas yang disesuaikan dengan tabel kelas untuk daftar kode kelas berada di samping. Kode Kelas bersifat dinamis/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>auto increment(Bertambah Otomatis)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>sehingga perlu dilakukan pengecekan secara berkala di dalam database maupun di fitur data kelas</t>
+    </r>
+  </si>
+  <si>
+    <t>avatar-1.png</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <r>
+      <t>Password di set atau diisi dengan 'password' menggunakan huruf non-kapital(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>lowercase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>)</t>
     </r>
   </si>
 </sst>
@@ -342,7 +434,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,6 +485,12 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Poppins"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Poppins"/>
     </font>
   </fonts>
@@ -486,7 +584,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -528,9 +626,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -539,16 +634,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -842,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -858,87 +962,87 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="21"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
     </row>
     <row r="2" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="14"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="15">
+      <c r="A3" s="14">
         <v>1</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
     </row>
     <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15">
+      <c r="A5" s="14">
         <v>3</v>
       </c>
-      <c r="B5" s="16" t="s">
-        <v>44</v>
+      <c r="B5" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
     </row>
     <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="15">
+      <c r="A6" s="14">
         <v>4</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="1"/>
@@ -962,10 +1066,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+      <c r="A7" s="14">
         <v>5</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="1"/>
@@ -976,188 +1080,196 @@
         <v>20</v>
       </c>
       <c r="F7" s="9">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="10">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
+      <c r="A8" s="14">
         <v>6</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>21</v>
       </c>
       <c r="F8" s="9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>29</v>
       </c>
       <c r="H8" s="10">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
+    <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
         <v>7</v>
       </c>
-      <c r="B9" s="16" t="s">
-        <v>13</v>
+      <c r="B9" s="18" t="s">
+        <v>50</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F9" s="9">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="10">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
+    <row r="10" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>8</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>9</v>
+      <c r="B10" s="18" t="s">
+        <v>46</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="9">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="10">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="I10" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
+    <row r="11" spans="1:9" ht="108.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
         <v>9</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>10</v>
+      <c r="B11" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="8">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>24</v>
       </c>
       <c r="F11" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>32</v>
       </c>
       <c r="H11" s="10">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="I11" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
+    <row r="12" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="14">
         <v>10</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>16</v>
+      <c r="B12" s="15" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="8">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F12" s="9">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>33</v>
       </c>
       <c r="H12" s="10">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I12" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="14">
+        <v>11</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="8">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>34</v>
       </c>
       <c r="H13" s="10">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I13" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F14" s="9">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>35</v>
@@ -1169,9 +1281,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+    <row r="15" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A15" s="14">
+        <v>13</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>16</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -1254,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1267,7 +1383,7 @@
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1282,6 +1398,17 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/public/file/excel/template_upload_data_siswa.xlsx
+++ b/public/file/excel/template_upload_data_siswa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Ketentuan Penulisan Data" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>NIS</t>
   </si>
@@ -64,6 +64,304 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">pastikan simpan file excel dalam format </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>.xls</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve"> atau </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+  </si>
+  <si>
+    <t>NIS berisi angka unik yang setiap siswa berbeda,</t>
+  </si>
+  <si>
+    <t>template berada di Sheet 2, buat file excel baru dan salin header dari template tersebut, kemudian paste di baris pertama, lebih tepatnya cell (A1)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Perhatian</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve"> !! Setiap perubahan seperti delete, dan create akan memengaruhi dari kode kelas di dalam tabel kelas</t>
+    </r>
+  </si>
+  <si>
+    <t>Nama Kelas</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>7G</t>
+  </si>
+  <si>
+    <t>7H</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>8E</t>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>8G</t>
+  </si>
+  <si>
+    <t>8H</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <t>9D</t>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>9G</t>
+  </si>
+  <si>
+    <t>9H</t>
+  </si>
+  <si>
+    <t>FOTO</t>
+  </si>
+  <si>
+    <r>
+      <t>Foto sudah disediakan di dalam asset gambar, terdapat gambar dengan judul '</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>avatar-[1-20]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>'. Admin dapat mengatur agar urut mulai dari avatar-1.png s.d. avatar-20.png</t>
+    </r>
+  </si>
+  <si>
+    <t>avatar-1.png</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <r>
+      <t>Password di set atau diisi dengan 'password' menggunakan huruf non-kapital(</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>lowercase</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>selalu awali penulisan data dari baris nomor 2, lebih tepatnya berada di cell (A2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Header sudah diatur yaitu: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>NIS(A1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Nama Siswa(B1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Username(C1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Password(D1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">,  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Kode Kelas(E1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve"> (baca ketentuan kode kelas disamping !), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>Foto(F1), Status(G1)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Kode Kelas diisi dengan kode kelas yang disesuaikan dengan tabel kelas untuk daftar kode kelas berada di samping. </t>
+  </si>
+  <si>
+    <t>Kode Kelas merupakan kode unik yang digunakan untuk membedakan antara kelas 1 dengan kelas yang lainnya. sehingga perlu untuk mengetahui kode kelas yang sudah dibuat</t>
+  </si>
+  <si>
+    <t>cukup mulai dari sheet template untuk menginputkan data siswa, karena semua data akan dibaca melalui sheet yang kedua. Dalam file ini nama sheet kedua adalah template</t>
+  </si>
+  <si>
+    <t>Status diisi dengan angka 1. dinama angka satu merepresentasikan status siswa aktif</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Username merupakan kombinasi antara nama depan siswa (-) NIS Contoh: </t>
     </r>
     <r>
@@ -107,259 +405,15 @@
         <color theme="1"/>
         <rFont val="Poppins"/>
       </rPr>
-      <t>marcell-9057</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">pastikan simpan file excel dalam format </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>.xls</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t xml:space="preserve"> atau </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-  </si>
-  <si>
-    <t>selalu awali penulisan data dari baris nomor 2 lebih jelas berada di cell (A2)</t>
-  </si>
-  <si>
-    <t>NIS berisi angka unik yang setiap siswa berbeda,</t>
-  </si>
-  <si>
-    <t>template berada di Sheet 2, buat file excel baru dan salin header dari template tersebut, kemudian paste di baris pertama, lebih tepatnya cell (A1)</t>
-  </si>
-  <si>
-    <t>Kode Kelas merupakan kode unik yang digunakan untuk membedakan antara kelas 1 dengan kelas yang lainnya, kode kelas ini digenerate secara otomatis di dalam tabel kelas di database sehingga perlu untuk mengetahui kode kelas yang sudah dibuat</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>Perhatian</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t xml:space="preserve"> !! Setiap perubahan seperti delete, dan create akan memengaruhi dari kode kelas di dalam tabel kelas</t>
-    </r>
-  </si>
-  <si>
-    <t>Nama Kelas</t>
-  </si>
-  <si>
-    <t>7A</t>
-  </si>
-  <si>
-    <t>7B</t>
-  </si>
-  <si>
-    <t>7C</t>
-  </si>
-  <si>
-    <t>7D</t>
-  </si>
-  <si>
-    <t>7E</t>
-  </si>
-  <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>7G</t>
-  </si>
-  <si>
-    <t>7H</t>
-  </si>
-  <si>
-    <t>8A</t>
-  </si>
-  <si>
-    <t>8B</t>
-  </si>
-  <si>
-    <t>8C</t>
-  </si>
-  <si>
-    <t>8D</t>
-  </si>
-  <si>
-    <t>8E</t>
-  </si>
-  <si>
-    <t>8F</t>
-  </si>
-  <si>
-    <t>8G</t>
-  </si>
-  <si>
-    <t>8H</t>
-  </si>
-  <si>
-    <t>9A</t>
-  </si>
-  <si>
-    <t>9B</t>
-  </si>
-  <si>
-    <t>9C</t>
-  </si>
-  <si>
-    <t>9D</t>
-  </si>
-  <si>
-    <t>9E</t>
-  </si>
-  <si>
-    <t>9F</t>
-  </si>
-  <si>
-    <t>9G</t>
-  </si>
-  <si>
-    <t>9H</t>
-  </si>
-  <si>
-    <t>FOTO</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Header sudah diatur yaitu: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>NIS</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>Nama Siswa</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>Username</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>Password</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>Foto</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t xml:space="preserve">, dan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>Kode Kelas</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t xml:space="preserve"> (baca ketentuan kode kelas disamping !)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Foto sudah disediakan di dalam asset gambar, terdapat gambar dengan judul '</t>
+      <t xml:space="preserve">Marcell-9057 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t xml:space="preserve">penggunaan username itu </t>
     </r>
     <r>
       <rPr>
@@ -368,20 +422,15 @@
         <color theme="1"/>
         <rFont val="Poppins"/>
       </rPr>
-      <t>avatar-[1-20]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>'. Admin dapat mengatur agar urut mulai dari avatar-1.png s.d. avatar-20.png</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Kode Kelas diisi dengan kode kelas yang disesuaikan dengan tabel kelas untuk daftar kode kelas berada di samping. Kode Kelas bersifat dinamis/</t>
+      <t xml:space="preserve">sensitive case </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>atau sangat berpengaruh pada huruf kapita</t>
     </r>
     <r>
       <rPr>
@@ -390,26 +439,15 @@
         <color theme="1"/>
         <rFont val="Poppins"/>
       </rPr>
-      <t>auto increment(Bertambah Otomatis)</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>sehingga perlu dilakukan pengecekan secara berkala di dalam database maupun di fitur data kelas</t>
-    </r>
-  </si>
-  <si>
-    <t>avatar-1.png</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <r>
-      <t>Password di set atau diisi dengan 'password' menggunakan huruf non-kapital(</t>
+      <t xml:space="preserve">l(uppercase) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Poppins"/>
+      </rPr>
+      <t>non-kapital</t>
     </r>
     <r>
       <rPr>
@@ -418,16 +456,11 @@
         <color theme="1"/>
         <rFont val="Poppins"/>
       </rPr>
-      <t>lowercase</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Poppins"/>
-      </rPr>
-      <t>)</t>
-    </r>
+      <t>(lowercase)</t>
+    </r>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -544,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -580,11 +613,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -643,17 +687,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -946,8 +1002,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -962,34 +1018,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="23"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
     </row>
     <row r="2" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22"/>
+      <c r="B2" s="24"/>
       <c r="C2" s="1"/>
-      <c r="D2" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="D2" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
@@ -999,70 +1055,70 @@
         <v>7</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-    </row>
-    <row r="5" spans="1:9" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+    </row>
+    <row r="5" spans="1:9" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
     </row>
     <row r="6" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H6" s="13" t="s">
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
@@ -1077,46 +1133,46 @@
         <v>1</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F7" s="9">
         <v>2</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="H7" s="10">
         <v>3</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="108.75" x14ac:dyDescent="0.25">
       <c r="A8" s="14">
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="8">
         <v>4</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F8" s="9">
         <v>5</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H8" s="10">
         <v>6</v>
       </c>
       <c r="I8" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
@@ -1124,26 +1180,26 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="8">
         <v>7</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" s="9">
         <v>8</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H9" s="10">
         <v>9</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
@@ -1151,80 +1207,80 @@
         <v>8</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="8">
         <v>10</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F10" s="9">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H10" s="10">
         <v>12</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="108.75" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="8">
         <v>13</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F11" s="9">
         <v>14</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H11" s="10">
         <v>15</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="15" t="s">
-        <v>13</v>
+      <c r="B12" s="27" t="s">
+        <v>51</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="8">
         <v>16</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F12" s="9">
         <v>17</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H12" s="10">
         <v>18</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
@@ -1232,26 +1288,26 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="8">
         <v>19</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="9">
         <v>20</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" s="10">
         <v>21</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
@@ -1259,34 +1315,34 @@
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="8">
         <v>22</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F14" s="9">
         <v>23</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" s="10">
         <v>24</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="21.75" x14ac:dyDescent="0.25">
       <c r="A15" s="14">
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1295,9 +1351,13 @@
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+    <row r="16" spans="1:9" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A16" s="14">
+        <v>14</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>14</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1305,9 +1365,13 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
+    <row r="17" spans="1:8" ht="65.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
+        <v>15</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1370,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1381,9 +1445,10 @@
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1400,15 +1465,21 @@
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
-        <v>49</v>
-      </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
